--- a/Analysis_Report.xlsx
+++ b/Analysis_Report.xlsx
@@ -43,13 +43,13 @@
     <t>create_Html_file_on_Name</t>
   </si>
   <si>
+    <t>update_linkedin_with-photo</t>
+  </si>
+  <si>
+    <t>create_wordpress_blog_and_7articles</t>
+  </si>
+  <si>
     <t>download_figma_and_install</t>
-  </si>
-  <si>
-    <t>create_wordpress_blog_and_7articles</t>
-  </si>
-  <si>
-    <t>update_linkedin_with-photo</t>
   </si>
   <si>
     <t>create_canva-menu</t>
@@ -468,28 +468,28 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>34.48275862068966</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>55.17241379310344</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -509,16 +509,16 @@
         <v>65.51724137931035</v>
       </c>
       <c r="J3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis_Report.xlsx
+++ b/Analysis_Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Week</t>
   </si>
@@ -31,28 +31,7 @@
     <t>Pending Percentage</t>
   </si>
   <si>
-    <t>dulingo_update</t>
-  </si>
-  <si>
-    <t>Git_Task</t>
-  </si>
-  <si>
-    <t>Index_File_Updation</t>
-  </si>
-  <si>
-    <t>create_Html_file_on_Name</t>
-  </si>
-  <si>
-    <t>update_linkedin_with-photo</t>
-  </si>
-  <si>
-    <t>create_wordpress_blog_and_7articles</t>
-  </si>
-  <si>
-    <t>download_figma_and_install</t>
-  </si>
-  <si>
-    <t>create_canva-menu</t>
+    <t>Folder not found</t>
   </si>
   <si>
     <t>Week01</t>
@@ -416,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,84 +420,45 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>37.93103448275862</v>
-      </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>51.72413793103448</v>
-      </c>
-      <c r="F2">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>14</v>
-      </c>
-      <c r="I2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
       <c r="B3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>24.13793103448276</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>65.51724137931035</v>
-      </c>
-      <c r="J3">
-        <v>18</v>
-      </c>
-      <c r="K3">
-        <v>17</v>
-      </c>
-      <c r="L3">
-        <v>17</v>
-      </c>
-      <c r="M3">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis_Report.xlsx
+++ b/Analysis_Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Week</t>
   </si>
@@ -31,7 +31,28 @@
     <t>Pending Percentage</t>
   </si>
   <si>
-    <t>Folder not found</t>
+    <t>dulingo_update</t>
+  </si>
+  <si>
+    <t>Git_Task</t>
+  </si>
+  <si>
+    <t>Index_File_Updation</t>
+  </si>
+  <si>
+    <t>create_Html_file_on_Name</t>
+  </si>
+  <si>
+    <t>update_linkedin_with-photo</t>
+  </si>
+  <si>
+    <t>create_wordpress_blog_and_7articles</t>
+  </si>
+  <si>
+    <t>download_figma_and_install</t>
+  </si>
+  <si>
+    <t>create_canva-menu</t>
   </si>
   <si>
     <t>Week01</t>
@@ -395,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,45 +441,84 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="F2">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
-        <v>0</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>26</v>
+        <v>65.51724137931035</v>
+      </c>
+      <c r="J3">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <v>17</v>
+      </c>
+      <c r="M3">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis_Report.xlsx
+++ b/Analysis_Report.xlsx
@@ -497,28 +497,28 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>24.13793103448276</v>
+        <v>27.58620689655172</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>65.51724137931035</v>
+        <v>62.06896551724138</v>
       </c>
       <c r="J3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis_Report.xlsx
+++ b/Analysis_Report.xlsx
@@ -468,28 +468,28 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>37.93103448275862</v>
+        <v>41.37931034482759</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>51.72413793103448</v>
+        <v>48.27586206896552</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">

--- a/Analysis_Report.xlsx
+++ b/Analysis_Report.xlsx
@@ -497,28 +497,28 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>27.58620689655172</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>62.06896551724138</v>
+        <v>58.62068965517241</v>
       </c>
       <c r="J3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M3">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis_Report.xlsx
+++ b/Analysis_Report.xlsx
@@ -49,10 +49,10 @@
     <t>create_wordpress_blog_and_7articles</t>
   </si>
   <si>
+    <t>create_canva-menu</t>
+  </si>
+  <si>
     <t>download_figma_and_install</t>
-  </si>
-  <si>
-    <t>create_canva-menu</t>
   </si>
   <si>
     <t>Week01</t>
@@ -497,16 +497,16 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>31.03448275862069</v>
+        <v>34.48275862068966</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>58.62068965517241</v>
+        <v>55.17241379310344</v>
       </c>
       <c r="J3">
         <v>16</v>
@@ -515,7 +515,7 @@
         <v>15</v>
       </c>
       <c r="L3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M3">
         <v>14</v>

--- a/Analysis_Report.xlsx
+++ b/Analysis_Report.xlsx
@@ -468,28 +468,28 @@
         <v>13</v>
       </c>
       <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>44.82758620689656</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>44.82758620689656</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>41.37931034482759</v>
-      </c>
-      <c r="D2">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>48.27586206896552</v>
-      </c>
-      <c r="F2">
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <v>13</v>
-      </c>
       <c r="H2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -497,28 +497,28 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>34.48275862068966</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>55.17241379310344</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="J3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis_Report.xlsx
+++ b/Analysis_Report.xlsx
@@ -31,16 +31,16 @@
     <t>Pending Percentage</t>
   </si>
   <si>
+    <t>Index_File_Updation</t>
+  </si>
+  <si>
+    <t>Git_Task</t>
+  </si>
+  <si>
+    <t>create_Html_file_on_Name</t>
+  </si>
+  <si>
     <t>dulingo_update</t>
-  </si>
-  <si>
-    <t>Git_Task</t>
-  </si>
-  <si>
-    <t>Index_File_Updation</t>
-  </si>
-  <si>
-    <t>create_Html_file_on_Name</t>
   </si>
   <si>
     <t>update_linkedin_with-photo</t>
@@ -468,28 +468,28 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>44.82758620689656</v>
+        <v>48.27586206896552</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>44.82758620689656</v>
+        <v>41.37931034482759</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -497,28 +497,28 @@
         <v>14</v>
       </c>
       <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>41.37931034482759</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>48.27586206896552</v>
+      </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
+      <c r="K3">
+        <v>12</v>
+      </c>
+      <c r="L3">
         <v>11</v>
       </c>
-      <c r="C3">
-        <v>37.93103448275862</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>51.72413793103448</v>
-      </c>
-      <c r="J3">
-        <v>15</v>
-      </c>
-      <c r="K3">
-        <v>14</v>
-      </c>
-      <c r="L3">
-        <v>13</v>
-      </c>
       <c r="M3">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis_Report.xlsx
+++ b/Analysis_Report.xlsx
@@ -468,28 +468,28 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>48.27586206896552</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>41.37931034482759</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:13">

--- a/Analysis_Report.xlsx
+++ b/Analysis_Report.xlsx
@@ -497,28 +497,28 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>41.37931034482759</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>48.27586206896552</v>
+        <v>44.82758620689656</v>
       </c>
       <c r="J3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M3">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
